--- a/HardwarePin.xlsx
+++ b/HardwarePin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FFlex\Desktop\GitProject\Project-IOT-PHMachine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACBED83A-C91C-4D7A-9E41-0EB08969DD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AFC2E6-3626-4F3C-951C-0104E246E98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{960AD990-BA4B-47A1-9D3D-388F53630E7F}"/>
   </bookViews>
@@ -57,12 +57,6 @@
     <t>A0</t>
   </si>
   <si>
-    <t>TX ESP32</t>
-  </si>
-  <si>
-    <t>RX ESP32</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -88,6 +82,12 @@
   </si>
   <si>
     <t>CS</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>RX</t>
   </si>
 </sst>
 </file>
@@ -198,7 +198,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -210,9 +210,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -534,33 +531,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12A88A6-8338-4691-B6A0-FD6A4BA8A1AA}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="152" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -568,16 +565,16 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -585,16 +582,16 @@
       <c r="C3" s="3">
         <v>21</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -602,17 +599,17 @@
       <c r="C4" s="3">
         <v>22</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -622,217 +619,217 @@
       <c r="C6" s="3">
         <v>17</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3">
         <v>16</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3">
         <v>27</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3">
         <v>5</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3">
         <v>18</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="C13" s="3">
         <v>19</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3">
         <v>23</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
@@ -894,9 +891,10 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>